--- a/assets/files/RANKING.xlsx
+++ b/assets/files/RANKING.xlsx
@@ -13,7 +13,6 @@
   </bookViews>
   <sheets>
     <sheet name="Plan3" sheetId="3" r:id="rId1"/>
-    <sheet name="Plan4" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
@@ -34,13 +33,13 @@
     <t>pontos</t>
   </si>
   <si>
-    <t>Nome1</t>
-  </si>
-  <si>
-    <t>Nome2</t>
-  </si>
-  <si>
     <t>Nome3</t>
+  </si>
+  <si>
+    <t>Thiago</t>
+  </si>
+  <si>
+    <t>Admin</t>
   </si>
 </sst>
 </file>
@@ -385,7 +384,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -412,7 +411,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2">
         <v>300</v>
@@ -426,7 +425,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D3">
         <v>300</v>
@@ -440,7 +439,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D4">
         <v>200</v>
@@ -449,16 +448,4 @@
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
 </file>
--- a/assets/files/RANKING.xlsx
+++ b/assets/files/RANKING.xlsx
@@ -12,14 +12,14 @@
     <workbookView xWindow="240" yWindow="45" windowWidth="19935" windowHeight="8130"/>
   </bookViews>
   <sheets>
-    <sheet name="Plan3" sheetId="3" r:id="rId1"/>
+    <sheet name="Ranking" sheetId="3" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>col</t>
   </si>
@@ -33,13 +33,16 @@
     <t>pontos</t>
   </si>
   <si>
-    <t>Nome3</t>
-  </si>
-  <si>
     <t>Thiago</t>
   </si>
   <si>
-    <t>Admin</t>
+    <t>Maurício</t>
+  </si>
+  <si>
+    <t>Guilherme</t>
+  </si>
+  <si>
+    <t>João</t>
   </si>
 </sst>
 </file>
@@ -75,8 +78,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -381,19 +385,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="9.140625" style="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
@@ -407,42 +414,56 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>1</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
       </c>
       <c r="D2">
-        <v>300</v>
+        <v>600</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
         <v>2</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
       </c>
       <c r="D3">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>3</v>
       </c>
       <c r="C4" t="s">
         <v>4</v>
       </c>
       <c r="D4">
-        <v>200</v>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5">
+        <v>150</v>
       </c>
     </row>
   </sheetData>
